--- a/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
@@ -21,8 +21,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -89,7 +89,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -115,7 +115,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -772,30 +773,57 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>2022-09-07</t>
         </is>
       </c>
-      <c r="B11" s="9" t="n">
-        <v>44811.79026461775</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" s="10" t="n">
+        <v>44811.79026461806</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>vk166</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>40</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="5" t="n">
         <v>-1</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="5" t="n">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>44812.47605128472</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>payreal166</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -1398,6 +1426,60 @@
       </c>
       <c r="G10" s="5" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>44812.54483952546</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>pay166</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>44812.55046904048</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>payy166</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>41</v>
+      </c>
+      <c r="E12" t="n">
+        <v>41</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -824,6 +824,114 @@
       </c>
       <c r="G12" s="5" t="n">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>44819.63156479166</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>payecs166</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44820.64721446759</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>fstcpay167</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>44823.60005887732</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>scndcpay167</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44824.38984690973</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>finalpay167</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>
@@ -1140,7 +1248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -1456,30 +1564,57 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>2022-09-08</t>
         </is>
       </c>
       <c r="B12" s="10" t="n">
-        <v>44812.55046904048</v>
-      </c>
-      <c r="C12" t="inlineStr">
+        <v>44812.55046903935</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>payy166</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="5" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>44824.73223812653</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>betapay167</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>41</v>
+      </c>
+      <c r="E13" t="n">
+        <v>41</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -932,6 +932,222 @@
       </c>
       <c r="G16" s="5" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>44830.69373863426</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>ecsppaayy167</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-10</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>44844.54684702546</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>scndcycle168</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>44845.43409495371</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>payfnlrun168</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>44867.69772292824</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>payscnd169</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>44868.43609572916</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>pay169</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-25</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>44890.77961439815</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>170fstpay</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-28</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>44893.43915192129</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>170payfix</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2022-11-28</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>44893.49881107983</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>170razorpayfiix</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>41</v>
+      </c>
+      <c r="E24" t="n">
+        <v>40</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.07</v>
       </c>
     </row>
   </sheetData>
@@ -1248,7 +1464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -1591,30 +1807,273 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>2022-09-20</t>
         </is>
       </c>
       <c r="B13" s="10" t="n">
-        <v>44824.73223812653</v>
-      </c>
-      <c r="C13" t="inlineStr">
+        <v>44824.732238125</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>betapay167</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>41</v>
-      </c>
-      <c r="E13" t="n">
-        <v>41</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="D13" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="5" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44824.88148668982</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>livepay167</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>44824.94651040509</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>rerunppay167</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44830.86589964121</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>payhtfdx167</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-06</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>44840.9240259838</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>payhtfx167</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>44845.54155699074</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>paybeta168</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>44845.86561809028</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>paylive168</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>44860.80539791667</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>razorhftx168</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>44868.54155775463</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>paybeta169</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>44868.85375451389</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>paylive169</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>1.09</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -1124,30 +1124,192 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>2022-11-28</t>
         </is>
       </c>
       <c r="B24" s="10" t="n">
-        <v>44893.49881107983</v>
-      </c>
-      <c r="C24" t="inlineStr">
+        <v>44893.49881107639</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>170razorpayfiix</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>41</v>
-      </c>
-      <c r="E24" t="n">
-        <v>40</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="D24" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="5" t="n">
         <v>3.07</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>44894.40902739584</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>170payr</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>44914.5107630787</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>pay171</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>44939.4371147338</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>pay172htfx</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>44945.77481356481</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>pay172scn</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>44946.4283021875</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>pay172final</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-01-25</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>44951.73169278695</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>172htfwed</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>41</v>
+      </c>
+      <c r="E30" t="n">
+        <v>39</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -2074,6 +2236,141 @@
       </c>
       <c r="G22" s="5" t="n">
         <v>1.09</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>44894.52851271991</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>170betapay</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>44894.90169310185</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>170livepay</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>44939.837618125</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>pay172htfx</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>44946.59570729166</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>pay172beta</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>44946.91318756944</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>pay172live</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>2.14</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
@@ -1286,29 +1286,29 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>2023-01-25</t>
         </is>
       </c>
       <c r="B30" s="10" t="n">
-        <v>44951.73169278695</v>
-      </c>
-      <c r="C30" t="inlineStr">
+        <v>44951.73169278936</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>172htfwed</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>41</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E30" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="5" t="n">
         <v>1.27</v>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -2371,6 +2371,33 @@
       </c>
       <c r="G27" s="5" t="n">
         <v>2.14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>44960.63808569634</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>pay172three</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>41</v>
+      </c>
+      <c r="E28" t="n">
+        <v>39</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -1310,6 +1310,60 @@
       </c>
       <c r="G30" s="5" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>44964.49304700232</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>testingpay172</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>44964.50708280093</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>ppaytest1172</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>2.3</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -2374,30 +2428,84 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>2023-02-03</t>
         </is>
       </c>
       <c r="B28" s="10" t="n">
-        <v>44960.63808569634</v>
-      </c>
-      <c r="C28" t="inlineStr">
+        <v>44960.63808569445</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>pay172three</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>41</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E28" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="5" t="n">
         <v>1.03</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>44964.5041196875</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>testingpay172</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>44964.57731602514</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>testff172</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>44</v>
+      </c>
+      <c r="E30" t="n">
+        <v>44</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -1364,6 +1364,60 @@
       </c>
       <c r="G32" s="5" t="n">
         <v>2.3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>44974.46063145834</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>pay173fstccycle</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>44977.43036248843</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>173payflow</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +1734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -2482,30 +2536,84 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>2023-02-07</t>
         </is>
       </c>
       <c r="B30" s="10" t="n">
-        <v>44964.57731602514</v>
-      </c>
-      <c r="C30" t="inlineStr">
+        <v>44964.5773160301</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>testff172</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="5" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>44977.60840824074</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>173payflow</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>44977.82336558346</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>173livepay</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>44</v>
+      </c>
+      <c r="E32" t="n">
+        <v>44</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -1418,6 +1418,168 @@
       </c>
       <c r="G34" s="5" t="n">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-09</t>
+        </is>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>44994.5657471875</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>pay174fstcycle</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>44998.45028982639</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>174payflow</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>45015.70358587963</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>175paysc</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>45016.4926241088</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>175fnlpay</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>45022.66847649305</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>176newpay</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>45023.67034971855</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>176fstpay</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>43</v>
+      </c>
+      <c r="E40" t="n">
+        <v>43</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +1896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -2590,30 +2752,138 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
       <c r="B32" s="10" t="n">
-        <v>44977.82336558346</v>
-      </c>
-      <c r="C32" t="inlineStr">
+        <v>44977.8233655787</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>173livepay</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="5" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>44998.55833195602</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>174betapay</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>44998.85786694445</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>174livepayy</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>45016.56866792824</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>175btpay</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>45016.83206708333</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>175devpay</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -1556,30 +1556,57 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>2023-04-07</t>
         </is>
       </c>
       <c r="B40" s="10" t="n">
-        <v>45023.67034971855</v>
-      </c>
-      <c r="C40" t="inlineStr">
+        <v>45023.67034972222</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>176fstpay</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40" s="5" t="n">
         <v>1.02</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>45034.51737569308</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>176paytrail</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>43</v>
+      </c>
+      <c r="E41" t="n">
+        <v>43</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -1583,30 +1583,84 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
       <c r="B41" s="10" t="n">
-        <v>45034.51737569308</v>
-      </c>
-      <c r="C41" t="inlineStr">
+        <v>45034.51737569444</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>176paytrail</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" s="5" t="n">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>45035.68607134259</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>176scndpay</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>45036.40221761574</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>176fnlpay</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>
@@ -1923,7 +1977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -2911,6 +2965,87 @@
       </c>
       <c r="G36" s="5" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>45036.50574767361</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>176betapay</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>45043.47015537037</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>176livepay</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>45044.69550507684</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>176fstpay</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>43</v>
+      </c>
+      <c r="E39" t="n">
+        <v>43</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -1661,6 +1661,222 @@
       </c>
       <c r="G43" s="5" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>45062.81095644676</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>177fstpay</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>45063.68589346065</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>177scndpay</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>45064.35376165509</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>177fnlpay</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-23</t>
+        </is>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>45069.65104763889</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>177htfxpay</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>45071.49580895833</v>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>178day1pay</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B49" s="10" t="n">
+        <v>45072.52420912037</v>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>178daytwopay</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-29</t>
+        </is>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>45075.45992293982</v>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>178daythreepay</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+      <c r="B51" s="10" t="n">
+        <v>45089.60884906686</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>178payddy</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>43</v>
+      </c>
+      <c r="E51" t="n">
+        <v>43</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>
@@ -1977,7 +2193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -3022,30 +3238,84 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="5" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
       <c r="B39" s="10" t="n">
-        <v>45044.69550507684</v>
-      </c>
-      <c r="C39" t="inlineStr">
+        <v>45044.69550508102</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>176fstpay</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>43</v>
-      </c>
-      <c r="E39" t="n">
-        <v>43</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="D39" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="n">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>45064.53220938658</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>177betpaay</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>45065.57221982639</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>177livepay</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -1853,30 +1853,57 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="5" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
       <c r="B51" s="10" t="n">
-        <v>45089.60884906686</v>
-      </c>
-      <c r="C51" t="inlineStr">
+        <v>45089.6088490625</v>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
         <is>
           <t>178payddy</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>43</v>
-      </c>
-      <c r="E51" t="n">
-        <v>43</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
+      <c r="D51" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5" t="n">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B52" s="10" t="n">
+        <v>45138.42337966435</v>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>180paytest</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>
@@ -2193,7 +2220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -3316,6 +3343,87 @@
       </c>
       <c r="G41" s="5" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>45138.82509377315</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>178scndhhtx</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>45139.54159539352</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>180pay</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>45139.86578410389</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>180livepay</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="n">
+        <v>43</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -1904,6 +1904,492 @@
       </c>
       <c r="G52" s="5" t="n">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="B53" s="10" t="n">
+        <v>45202.5296234838</v>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>183scndpay</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B54" s="10" t="n">
+        <v>45203.49845259259</v>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>183fnlpay</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="B55" s="10" t="n">
+        <v>45205.69434751158</v>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>183teststpay</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B56" s="10" t="n">
+        <v>45226.67696763889</v>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>184payfst</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F56" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B57" s="10" t="n">
+        <v>45229.38474435185</v>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>184payfnl</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B58" s="10" t="n">
+        <v>45258.44216679398</v>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>185payfst</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B59" s="10" t="n">
+        <v>45259.36935789352</v>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>185lstpay</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B60" s="10" t="n">
+        <v>45275.73332965278</v>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>186payscnd</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E60" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B61" s="10" t="n">
+        <v>45278.41881394676</v>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>186paylst</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="B62" s="10" t="n">
+        <v>45299.70457689815</v>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>187fstpay</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B63" s="10" t="n">
+        <v>45301.33550519676</v>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>187lstpay</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="B64" s="10" t="n">
+        <v>45323.65316306713</v>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>188payfstcyc</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B65" s="10" t="n">
+        <v>45324.83947746528</v>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>188payscndcyc</t>
+        </is>
+      </c>
+      <c r="D65" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F65" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B66" s="10" t="n">
+        <v>45327.40044875</v>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>188lstpay</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F66" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B67" s="10" t="n">
+        <v>45341.68599606481</v>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>188paymednet5</t>
+        </is>
+      </c>
+      <c r="D67" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F67" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B68" s="10" t="n">
+        <v>45357.65996175926</v>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>189fstpay</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B69" s="10" t="n">
+        <v>45358.53836997685</v>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>189scndpay</t>
+        </is>
+      </c>
+      <c r="D69" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F69" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B70" s="10" t="n">
+        <v>45359.34306543982</v>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>189fnlpay</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E70" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F70" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>
@@ -2220,7 +2706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -3400,30 +3886,462 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
       <c r="B44" s="10" t="n">
-        <v>45139.86578410389</v>
-      </c>
-      <c r="C44" t="inlineStr">
+        <v>45139.8657841088</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>180livepay</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>43</v>
-      </c>
-      <c r="E44" t="n">
-        <v>43</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="D44" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="n">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>45203.51724430556</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>183betapay</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>45203.92711224537</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>183liveocr</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>45229.64026686343</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>184betapay</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>45229.79732990741</v>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>184paylive</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B49" s="10" t="n">
+        <v>45229.80062049768</v>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>184livvepay</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>45259.57374121528</v>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>185paybeta</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B51" s="10" t="n">
+        <v>45259.8989942824</v>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>185livepay</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B52" s="10" t="n">
+        <v>45278.56903804398</v>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>186paybeta</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B53" s="10" t="n">
+        <v>45278.80602833333</v>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>186paylive</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="F53" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B54" s="10" t="n">
+        <v>45279.49524689815</v>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>186payllivv</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B55" s="10" t="n">
+        <v>45301.5569699537</v>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>187betapay</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B56" s="10" t="n">
+        <v>45301.87591501157</v>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>187livepay</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F56" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B57" s="10" t="n">
+        <v>45327.57049278935</v>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>188betapay</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B58" s="10" t="n">
+        <v>45327.87778704861</v>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>188paylivve</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B59" s="10" t="n">
+        <v>45359.43966515046</v>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>189betapay</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B60" s="10" t="n">
+        <v>45359.7311206641</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>189livepayy</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>43</v>
+      </c>
+      <c r="E60" t="n">
+        <v>43</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2.13</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -2390,6 +2390,141 @@
       </c>
       <c r="G70" s="5" t="n">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B71" s="10" t="n">
+        <v>45379.53038651621</v>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>190payfst</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E71" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F71" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="5" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B72" s="10" t="n">
+        <v>45380.47620586806</v>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>190scndpay</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E72" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F72" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B73" s="10" t="n">
+        <v>45383.36799064815</v>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>190fnlpay</t>
+        </is>
+      </c>
+      <c r="D73" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E73" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F73" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B74" s="10" t="n">
+        <v>45414.47254390046</v>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>191payfst</t>
+        </is>
+      </c>
+      <c r="D74" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E74" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F74" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B75" s="10" t="n">
+        <v>45415.34529061343</v>
+      </c>
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>191lstpay</t>
+        </is>
+      </c>
+      <c r="D75" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E75" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F75" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
@@ -2706,7 +2841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -4318,30 +4453,111 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="5" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
       <c r="B60" s="10" t="n">
-        <v>45359.7311206641</v>
-      </c>
-      <c r="C60" t="inlineStr">
+        <v>45359.73112065972</v>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
         <is>
           <t>189livepayy</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>43</v>
-      </c>
-      <c r="E60" t="n">
-        <v>43</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
+      <c r="D60" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E60" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5" t="n">
         <v>2.13</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B61" s="10" t="n">
+        <v>45383.53024209491</v>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>190betappay</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B62" s="10" t="n">
+        <v>45383.85082594908</v>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>190livepayy</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B63" s="10" t="n">
+        <v>45415.60493322189</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>191betapay</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>43</v>
+      </c>
+      <c r="E63" t="n">
+        <v>43</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
@@ -2841,7 +2841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -4534,30 +4534,57 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="5" t="inlineStr">
         <is>
           <t>2024-05-03</t>
         </is>
       </c>
       <c r="B63" s="10" t="n">
-        <v>45415.60493322189</v>
-      </c>
-      <c r="C63" t="inlineStr">
+        <v>45415.60493321759</v>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
         <is>
           <t>191betapay</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>43</v>
-      </c>
-      <c r="E63" t="n">
-        <v>43</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
+      <c r="D63" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B64" s="10" t="n">
+        <v>45418.56101218369</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>191livepay</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>43</v>
+      </c>
+      <c r="E64" t="n">
+        <v>42</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.96</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -2525,6 +2525,33 @@
       </c>
       <c r="G75" s="5" t="n">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B76" s="10" t="n">
+        <v>45467.44429770833</v>
+      </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>193ppaayyf</t>
+        </is>
+      </c>
+      <c r="D76" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E76" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F76" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="5" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>
@@ -2841,7 +2868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -4561,30 +4588,57 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="5" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
       <c r="B64" s="10" t="n">
-        <v>45418.56101218369</v>
-      </c>
-      <c r="C64" t="inlineStr">
+        <v>45418.5610121875</v>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
         <is>
           <t>191livepay</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>43</v>
-      </c>
-      <c r="E64" t="n">
+      <c r="D64" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E64" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64" s="5" t="n">
         <v>1.96</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B65" s="10" t="n">
+        <v>45471.55055624428</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>193ppyysa</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>42</v>
+      </c>
+      <c r="E65" t="n">
+        <v>42</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_RazorPay_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G10"/>
@@ -2554,6 +2554,60 @@
         <v>1.27</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B77" s="10" t="n">
+        <v>45489.63662416667</v>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>194fstpay</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E77" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F77" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B78" s="10" t="n">
+        <v>45491.35562907407</v>
+      </c>
+      <c r="C78" s="5" t="inlineStr">
+        <is>
+          <t>194fnlpay</t>
+        </is>
+      </c>
+      <c r="D78" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E78" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F78" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="5" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2567,7 +2621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="A2:G10"/>
@@ -2853,6 +2907,33 @@
       </c>
       <c r="G10" s="5" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>45491.63337089438</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>194betapay</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>42</v>
+      </c>
+      <c r="E11" t="n">
+        <v>42</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -4615,29 +4696,29 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="5" t="inlineStr">
         <is>
           <t>2024-06-28</t>
         </is>
       </c>
       <c r="B65" s="10" t="n">
-        <v>45471.55055624428</v>
-      </c>
-      <c r="C65" t="inlineStr">
+        <v>45471.55055625</v>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
         <is>
           <t>193ppyysa</t>
         </is>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
+      <c r="F65" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5" t="n">
         <v>1.47</v>
       </c>
     </row>
